--- a/sistema_de_alimentacion.xlsx
+++ b/sistema_de_alimentacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Hospital\MinutaHospital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DED7266-3D17-4A6F-B7A9-2123DC2326F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37459D20-B767-44F5-B660-884EE8118B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="925" firstSheet="3" activeTab="13" xr2:uid="{8554B5AA-75F9-4A04-86C5-EC624286FE63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="925" firstSheet="1" activeTab="13" xr2:uid="{8554B5AA-75F9-4A04-86C5-EC624286FE63}"/>
   </bookViews>
   <sheets>
     <sheet name="PORTADA" sheetId="6" r:id="rId1"/>
@@ -867,7 +867,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3057" uniqueCount="1256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="1271">
   <si>
     <t>MANTENEDOR DE FUNCIONARIOS</t>
   </si>
@@ -4634,7 +4634,52 @@
     <t>SI</t>
   </si>
   <si>
-    <t>ACCESO A TODO</t>
+    <t>Listar Funcionario</t>
+  </si>
+  <si>
+    <t>Agregar Funcionario</t>
+  </si>
+  <si>
+    <t>Actualizar Funcionario</t>
+  </si>
+  <si>
+    <t>Eliminar Funcionario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registrar Colacion </t>
+  </si>
+  <si>
+    <t>Confirmar Colacion</t>
+  </si>
+  <si>
+    <t>Listar Hospitalizado</t>
+  </si>
+  <si>
+    <t>Agregar Hospitalizado</t>
+  </si>
+  <si>
+    <t>Actualizar Hospitalizado</t>
+  </si>
+  <si>
+    <t>Buscar Logs</t>
+  </si>
+  <si>
+    <t>Exportar Archivos pdf</t>
+  </si>
+  <si>
+    <t>Listar Dimensiones</t>
+  </si>
+  <si>
+    <t>Agregar Dimensiones</t>
+  </si>
+  <si>
+    <t>Editar Dimensiones</t>
+  </si>
+  <si>
+    <t>Mostrar Ventas del dia</t>
+  </si>
+  <si>
+    <t>Que sea 1 por dia</t>
   </si>
 </sst>
 </file>
@@ -5606,6 +5651,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5628,9 +5675,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5654,9 +5716,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5664,18 +5723,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5690,8 +5737,6 @@
     <xf numFmtId="0" fontId="15" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18964,17 +19009,17 @@
       <c r="D2" s="68"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="109" t="s">
         <v>329</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="111" t="s">
         <v>330</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="108"/>
+      <c r="A4" s="110"/>
       <c r="B4" s="69" t="s">
         <v>331</v>
       </c>
@@ -19699,69 +19744,69 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
@@ -19778,11 +19823,11 @@
       <c r="F5" s="71"/>
     </row>
     <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
+      <c r="A6" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
     </row>
     <row r="7" spans="1:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
@@ -19790,11 +19835,11 @@
       <c r="C7" s="40"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="94" t="s">
         <v>267</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
       <c r="E8" t="s">
         <v>335</v>
       </c>
@@ -19803,9 +19848,9 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="105"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
       <c r="E9" t="s">
         <v>336</v>
       </c>
@@ -19822,16 +19867,16 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="105"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
@@ -19926,21 +19971,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="103" t="s">
+      <c r="A24" s="96" t="s">
         <v>282</v>
       </c>
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
       <c r="E24" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="103" t="s">
+      <c r="A25" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="97"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
@@ -20029,522 +20074,564 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8AA8D2-7BAA-4CAB-AF83-CCCC188A0F9E}">
-  <dimension ref="A2:C63"/>
+  <dimension ref="A2:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="3" max="3" width="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
         <v>348</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="83"/>
+      <c r="D3" s="29" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="111"/>
-      <c r="B3" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="111"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="112" t="s">
+      <c r="E3" s="29" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>1266</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="83"/>
+      <c r="D4" s="29" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>1262</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="83"/>
+      <c r="D5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>1263</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="83"/>
+      <c r="D6" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="83"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="83"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="83"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="83"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="84" t="s">
         <v>347</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
-      <c r="B6" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="83"/>
+      <c r="B12" t="s">
         <v>267</v>
-      </c>
-      <c r="C6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="111"/>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="111"/>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="111"/>
-      <c r="B12" t="s">
-        <v>352</v>
       </c>
       <c r="C12" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="83"/>
       <c r="B13" t="s">
-        <v>1253</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="111"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="112" t="s">
-        <v>358</v>
-      </c>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="83"/>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="83"/>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="83"/>
       <c r="B16" t="s">
-        <v>267</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="112"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="83"/>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="83"/>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>352</v>
       </c>
       <c r="C18" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="112"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="83"/>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>1253</v>
       </c>
       <c r="C19" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>355</v>
-      </c>
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="83"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
+      <c r="A21" s="84" t="s">
+        <v>358</v>
+      </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="112"/>
+      <c r="A22" s="84"/>
       <c r="B22" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="C22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="84"/>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="84"/>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="84"/>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="112"/>
-      <c r="B23" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="112" t="s">
-        <v>350</v>
-      </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>353</v>
-      </c>
-    </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="112"/>
+      <c r="A26" s="84"/>
       <c r="B26" t="s">
-        <v>267</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="112"/>
+      <c r="A27" s="84"/>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="112"/>
+      <c r="A28" s="84"/>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>352</v>
       </c>
       <c r="C28" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="112"/>
+      <c r="A29" s="84"/>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>1253</v>
       </c>
       <c r="C29" t="s">
-        <v>349</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="112"/>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>353</v>
-      </c>
+      <c r="A30" s="84"/>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="112"/>
+      <c r="A31" s="84" t="s">
+        <v>350</v>
+      </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="112"/>
+      <c r="A32" s="84"/>
       <c r="B32" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="C32" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="112"/>
+      <c r="A33" s="84"/>
       <c r="B33" t="s">
-        <v>1253</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>1254</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="112"/>
+      <c r="A34" s="84"/>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="112" t="s">
-        <v>354</v>
-      </c>
+      <c r="A35" s="84"/>
       <c r="B35" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="112"/>
+      <c r="A36" s="84"/>
       <c r="B36" t="s">
-        <v>267</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="112"/>
+      <c r="A37" s="84"/>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="112"/>
+      <c r="A38" s="84"/>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>352</v>
       </c>
       <c r="C38" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="112"/>
+      <c r="A39" s="84"/>
       <c r="B39" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="84"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="84" t="s">
+        <v>354</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="84"/>
+      <c r="B42" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="84"/>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="84"/>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="84"/>
+      <c r="B45" t="s">
         <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="112"/>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="112"/>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="112"/>
-      <c r="B42" t="s">
-        <v>352</v>
-      </c>
-      <c r="C42" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="112"/>
-      <c r="B43" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="112"/>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="112" t="s">
-        <v>356</v>
-      </c>
-      <c r="B45" t="s">
-        <v>0</v>
       </c>
       <c r="C45" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="112"/>
+      <c r="A46" s="84"/>
       <c r="B46" t="s">
-        <v>267</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="112"/>
+      <c r="A47" s="84"/>
       <c r="B47" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="112"/>
+      <c r="A48" s="84"/>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>352</v>
       </c>
       <c r="C48" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="112"/>
+      <c r="A49" s="84"/>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>1253</v>
       </c>
       <c r="C49" t="s">
-        <v>353</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="112"/>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>353</v>
-      </c>
+      <c r="A50" s="84"/>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="112"/>
+      <c r="A51" s="84" t="s">
+        <v>356</v>
+      </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C51" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="112"/>
+      <c r="A52" s="84"/>
       <c r="B52" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="C52" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="84"/>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="112"/>
-      <c r="B53" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1254</v>
-      </c>
-    </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="112"/>
+      <c r="A54" s="84"/>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="112" t="s">
-        <v>1252</v>
-      </c>
+      <c r="A55" s="84"/>
       <c r="B55" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="84"/>
       <c r="B56" t="s">
-        <v>267</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="84"/>
       <c r="B57" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="84"/>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>352</v>
       </c>
       <c r="C58" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="84"/>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>1253</v>
       </c>
       <c r="C59" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="84"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="84" t="s">
+        <v>1252</v>
+      </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C61" t="s">
         <v>353</v>
@@ -20552,7 +20639,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="C62" t="s">
         <v>353</v>
@@ -20560,9 +20647,57 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>352</v>
+      </c>
+      <c r="C68" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>1253</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C69" t="s">
         <v>1254</v>
       </c>
     </row>
@@ -55267,95 +55402,95 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
+      <c r="D4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -55363,24 +55498,24 @@
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="86" t="s">
+      <c r="A7" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="88" t="s">
         <v>266</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="87" t="s">
+      <c r="I7" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="89"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -55389,9 +55524,9 @@
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -55425,11 +55560,11 @@
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="85" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -55445,9 +55580,9 @@
       <c r="P10" s="6"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
@@ -55478,11 +55613,11 @@
       <c r="M11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="88" t="s">
+      <c r="N11" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="88"/>
-      <c r="P11" s="89"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="91"/>
     </row>
     <row r="12" spans="1:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
@@ -55503,11 +55638,11 @@
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="26" t="s">
         <v>17</v>
       </c>
@@ -55539,9 +55674,9 @@
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -55785,22 +55920,22 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33"/>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="93" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
       <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
       <c r="G5" s="34"/>
       <c r="K5" s="30" t="s">
         <v>17</v>
@@ -55818,15 +55953,15 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
-      <c r="B7" s="91">
+      <c r="B7" s="92">
         <v>1</v>
       </c>
       <c r="C7" s="35"/>
-      <c r="D7" s="91">
+      <c r="D7" s="92">
         <v>2</v>
       </c>
       <c r="E7" s="35"/>
-      <c r="F7" s="91">
+      <c r="F7" s="92">
         <v>3</v>
       </c>
       <c r="G7" s="34"/>
@@ -55837,11 +55972,11 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33"/>
-      <c r="B8" s="91"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="35"/>
-      <c r="D8" s="91"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="35"/>
-      <c r="F8" s="91"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="34"/>
       <c r="K8" s="36" t="s">
         <v>321</v>
@@ -55855,26 +55990,26 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
-      <c r="B10" s="91">
+      <c r="B10" s="92">
         <v>4</v>
       </c>
       <c r="C10" s="35"/>
-      <c r="D10" s="91">
+      <c r="D10" s="92">
         <v>5</v>
       </c>
       <c r="E10" s="35"/>
-      <c r="F10" s="91">
+      <c r="F10" s="92">
         <v>6</v>
       </c>
       <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
-      <c r="B11" s="91"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="35"/>
-      <c r="D11" s="91"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="35"/>
-      <c r="F11" s="91"/>
+      <c r="F11" s="92"/>
       <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -55883,26 +56018,26 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
-      <c r="B13" s="91">
+      <c r="B13" s="92">
         <v>7</v>
       </c>
       <c r="C13" s="35"/>
-      <c r="D13" s="91">
+      <c r="D13" s="92">
         <v>8</v>
       </c>
       <c r="E13" s="35"/>
-      <c r="F13" s="91">
+      <c r="F13" s="92">
         <v>9</v>
       </c>
       <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
-      <c r="B14" s="91"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="35"/>
-      <c r="D14" s="91"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="91"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -55911,24 +56046,24 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
-      <c r="B16" s="91"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="35"/>
-      <c r="D16" s="91">
+      <c r="D16" s="92">
         <v>0</v>
       </c>
       <c r="E16" s="35"/>
-      <c r="F16" s="91" t="s">
+      <c r="F16" s="92" t="s">
         <v>270</v>
       </c>
       <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="33"/>
-      <c r="B17" s="91"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="35"/>
-      <c r="D17" s="91"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="35"/>
-      <c r="F17" s="91"/>
+      <c r="F17" s="92"/>
       <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -55937,22 +56072,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="92" t="s">
         <v>269</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
       <c r="G19" s="34"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
       <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -55975,6 +56110,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="B19:F20"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="D7:D8"/>
@@ -55983,12 +56124,6 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -58003,122 +58138,122 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="106" t="s">
         <v>277</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="101"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="107"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="102"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="108"/>
     </row>
     <row r="6" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
+      <c r="A6" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="46" t="s">
         <v>123</v>
       </c>
@@ -58159,26 +58294,26 @@
       <c r="T7" s="55"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="94" t="s">
         <v>267</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="86" t="s">
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="88" t="s">
         <v>284</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="87" t="s">
+      <c r="I8" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -58189,9 +58324,9 @@
       <c r="T8" s="55"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="105"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -58233,11 +58368,11 @@
       <c r="T10" s="55"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -58257,9 +58392,9 @@
       <c r="T11" s="55"/>
     </row>
     <row r="12" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="105"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="3" t="s">
         <v>285</v>
       </c>
@@ -58287,13 +58422,13 @@
       <c r="L12" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M12" s="89" t="s">
+      <c r="M12" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
       <c r="R12" s="47" t="s">
         <v>292</v>
       </c>
@@ -58325,32 +58460,32 @@
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
-      <c r="D14" s="99">
-        <v>2</v>
-      </c>
-      <c r="E14" s="99" t="s">
+      <c r="D14" s="98">
+        <v>2</v>
+      </c>
+      <c r="E14" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="99" t="s">
+      <c r="F14" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="99">
+      <c r="G14" s="98">
         <v>42</v>
       </c>
-      <c r="H14" s="99" t="s">
+      <c r="H14" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="I14" s="99" t="s">
+      <c r="I14" s="98" t="s">
         <v>290</v>
       </c>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
       <c r="S14" s="49"/>
       <c r="T14" s="55"/>
     </row>
@@ -58358,20 +58493,20 @@
       <c r="A15" s="53"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
       <c r="S15" s="49"/>
       <c r="T15" s="55"/>
     </row>
@@ -58467,19 +58602,19 @@
       <c r="T23" s="55"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="103" t="s">
+      <c r="A24" s="96" t="s">
         <v>282</v>
       </c>
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
       <c r="T24" s="55"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="103" t="s">
+      <c r="A25" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="97"/>
       <c r="T25" s="55"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -58587,17 +58722,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="D1:T3"/>
     <mergeCell ref="L14:L15"/>
@@ -58611,6 +58735,17 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="D4:T5"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="A11:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/sistema_de_alimentacion.xlsx
+++ b/sistema_de_alimentacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Hospital\MinutaHospital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37459D20-B767-44F5-B660-884EE8118B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305777EB-A975-4A33-AC59-D099036BC496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="925" firstSheet="1" activeTab="13" xr2:uid="{8554B5AA-75F9-4A04-86C5-EC624286FE63}"/>
   </bookViews>
@@ -5675,24 +5675,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5716,6 +5701,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5723,6 +5711,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19790,23 +19790,23 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
@@ -19823,7 +19823,7 @@
       <c r="F5" s="71"/>
     </row>
     <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="107" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="85"/>
@@ -19835,7 +19835,7 @@
       <c r="C7" s="40"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="107" t="s">
         <v>267</v>
       </c>
       <c r="B8" s="85"/>
@@ -19848,7 +19848,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
       <c r="E9" t="s">
@@ -19867,14 +19867,14 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="107" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
+      <c r="A12" s="107"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
@@ -19971,21 +19971,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="96" t="s">
+      <c r="A24" s="105" t="s">
         <v>282</v>
       </c>
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
       <c r="E24" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="96" t="s">
+      <c r="A25" s="105" t="s">
         <v>283</v>
       </c>
-      <c r="B25" s="97"/>
-      <c r="C25" s="97"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
@@ -20077,7 +20077,7 @@
   <dimension ref="A2:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20132,7 +20132,7 @@
       <c r="E3" s="29" t="s">
         <v>1259</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="29" t="s">
         <v>1260</v>
       </c>
       <c r="G3" s="29" t="s">
@@ -20147,7 +20147,7 @@
       <c r="J3" s="29" t="s">
         <v>1266</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="29" t="s">
         <v>1269</v>
       </c>
     </row>
@@ -55920,22 +55920,22 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33"/>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="92" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
       <c r="G5" s="34"/>
       <c r="K5" s="30" t="s">
         <v>17</v>
@@ -55953,15 +55953,15 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
-      <c r="B7" s="92">
+      <c r="B7" s="93">
         <v>1</v>
       </c>
       <c r="C7" s="35"/>
-      <c r="D7" s="92">
+      <c r="D7" s="93">
         <v>2</v>
       </c>
       <c r="E7" s="35"/>
-      <c r="F7" s="92">
+      <c r="F7" s="93">
         <v>3</v>
       </c>
       <c r="G7" s="34"/>
@@ -55972,11 +55972,11 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33"/>
-      <c r="B8" s="92"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="35"/>
-      <c r="D8" s="92"/>
+      <c r="D8" s="93"/>
       <c r="E8" s="35"/>
-      <c r="F8" s="92"/>
+      <c r="F8" s="93"/>
       <c r="G8" s="34"/>
       <c r="K8" s="36" t="s">
         <v>321</v>
@@ -55990,26 +55990,26 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
-      <c r="B10" s="92">
+      <c r="B10" s="93">
         <v>4</v>
       </c>
       <c r="C10" s="35"/>
-      <c r="D10" s="92">
+      <c r="D10" s="93">
         <v>5</v>
       </c>
       <c r="E10" s="35"/>
-      <c r="F10" s="92">
+      <c r="F10" s="93">
         <v>6</v>
       </c>
       <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
-      <c r="B11" s="92"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="35"/>
-      <c r="D11" s="92"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="35"/>
-      <c r="F11" s="92"/>
+      <c r="F11" s="93"/>
       <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -56018,26 +56018,26 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
-      <c r="B13" s="92">
+      <c r="B13" s="93">
         <v>7</v>
       </c>
       <c r="C13" s="35"/>
-      <c r="D13" s="92">
+      <c r="D13" s="93">
         <v>8</v>
       </c>
       <c r="E13" s="35"/>
-      <c r="F13" s="92">
+      <c r="F13" s="93">
         <v>9</v>
       </c>
       <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
-      <c r="B14" s="92"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="35"/>
-      <c r="D14" s="92"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="92"/>
+      <c r="F14" s="93"/>
       <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -56046,24 +56046,24 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
-      <c r="B16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="35"/>
-      <c r="D16" s="92">
+      <c r="D16" s="93">
         <v>0</v>
       </c>
       <c r="E16" s="35"/>
-      <c r="F16" s="92" t="s">
+      <c r="F16" s="93" t="s">
         <v>270</v>
       </c>
       <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="33"/>
-      <c r="B17" s="92"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="35"/>
-      <c r="D17" s="92"/>
+      <c r="D17" s="93"/>
       <c r="E17" s="35"/>
-      <c r="F17" s="92"/>
+      <c r="F17" s="93"/>
       <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -56072,22 +56072,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
       <c r="G19" s="34"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
       <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -56110,12 +56110,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
     <mergeCell ref="B19:F20"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="D7:D8"/>
@@ -56124,6 +56118,12 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -58184,47 +58184,47 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="102" t="s">
         <v>277</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="107"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="103"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52"/>
@@ -58246,10 +58246,10 @@
       <c r="Q5" s="87"/>
       <c r="R5" s="87"/>
       <c r="S5" s="87"/>
-      <c r="T5" s="108"/>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="107" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="85"/>
@@ -58294,7 +58294,7 @@
       <c r="T7" s="55"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="107" t="s">
         <v>267</v>
       </c>
       <c r="B8" s="85"/>
@@ -58324,7 +58324,7 @@
       <c r="T8" s="55"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
       <c r="D9" s="6"/>
@@ -58368,7 +58368,7 @@
       <c r="T10" s="55"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="107" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="85"/>
@@ -58392,7 +58392,7 @@
       <c r="T11" s="55"/>
     </row>
     <row r="12" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
+      <c r="A12" s="107"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
       <c r="D12" s="3" t="s">
@@ -58425,10 +58425,10 @@
       <c r="M12" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="108"/>
       <c r="R12" s="47" t="s">
         <v>292</v>
       </c>
@@ -58460,32 +58460,32 @@
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
-      <c r="D14" s="98">
-        <v>2</v>
-      </c>
-      <c r="E14" s="98" t="s">
+      <c r="D14" s="101">
+        <v>2</v>
+      </c>
+      <c r="E14" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="98" t="s">
+      <c r="F14" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="98">
+      <c r="G14" s="101">
         <v>42</v>
       </c>
-      <c r="H14" s="98" t="s">
+      <c r="H14" s="101" t="s">
         <v>289</v>
       </c>
-      <c r="I14" s="98" t="s">
+      <c r="I14" s="101" t="s">
         <v>290</v>
       </c>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
       <c r="S14" s="49"/>
       <c r="T14" s="55"/>
     </row>
@@ -58493,20 +58493,20 @@
       <c r="A15" s="53"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="105"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="100"/>
       <c r="S15" s="49"/>
       <c r="T15" s="55"/>
     </row>
@@ -58602,19 +58602,19 @@
       <c r="T23" s="55"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="96" t="s">
+      <c r="A24" s="105" t="s">
         <v>282</v>
       </c>
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
       <c r="T24" s="55"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="96" t="s">
+      <c r="A25" s="105" t="s">
         <v>283</v>
       </c>
-      <c r="B25" s="97"/>
-      <c r="C25" s="97"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
       <c r="T25" s="55"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -58722,6 +58722,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="D1:T3"/>
     <mergeCell ref="L14:L15"/>
@@ -58735,17 +58746,6 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="D4:T5"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="A11:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
